--- a/csvtoxl.xlsx
+++ b/csvtoxl.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
         </is>
       </c>
     </row>
